--- a/STGGame/Assets/ResEditor/Design/Configs/G_Resource.xlsx
+++ b/STGGame/Assets/ResEditor/Design/Configs/G_Resource.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24526"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13680" yWindow="8625" windowWidth="25605" windowHeight="16065"/>
+    <workbookView xWindow="8700" yWindow="6500" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>src</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,15 +47,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,7 +98,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -385,18 +389,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="24.125" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -423,12 +427,9 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -454,12 +455,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -472,12 +473,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/STGGame/Assets/ResEditor/Design/Configs/G_Resource.xlsx
+++ b/STGGame/Assets/ResEditor/Design/Configs/G_Resource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24526"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="6500" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="15320" yWindow="11500" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>src</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,14 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reimu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,7 +401,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -436,11 +444,14 @@
     <row r="4" spans="1:3" hidden="1"/>
     <row r="5" spans="1:3" hidden="1"/>
     <row r="6" spans="1:3">
-      <c r="A6">
-        <v>400001</v>
+      <c r="A6" t="s">
+        <v>9</v>
       </c>
       <c r="B6">
         <v>400001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
